--- a/当番表/3, 4月当番表.xlsx
+++ b/当番表/3, 4月当番表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\git\roster\当番表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CA83EEE-D27D-47D8-BB76-AD44189D5B70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C231B65-4C04-4A44-B157-43B9C360499A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" xr2:uid="{D8308FA5-AF5D-49A8-BD1E-7C739C881BDD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" xr2:uid="{9E0B3DBB-2400-487E-B1B3-4C727E85A43D}"/>
   </bookViews>
   <sheets>
     <sheet name="当番表" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
@@ -95,10 +95,6 @@
     <rPh sb="3" eb="6">
       <t>ギョウジトウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>x</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -831,7 +827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D43439-ABD0-4714-A893-02444C57F1C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0EDB9E-953E-45EC-9D3A-FDD4860F0277}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J38"/>
   <sheetViews>
@@ -881,17 +877,17 @@
         <v>43554</v>
       </c>
       <c r="D2" s="10">
-        <v>6203</v>
+        <v>4406</v>
       </c>
       <c r="E2" s="11">
-        <v>6204</v>
+        <v>4407</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
       <c r="J2" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -904,22 +900,18 @@
       <c r="C3" s="15">
         <v>43555</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="D3" s="16">
+        <v>4408</v>
+      </c>
+      <c r="E3" s="17">
+        <v>4409</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
       <c r="J3" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -932,22 +924,22 @@
       <c r="C4" s="15">
         <v>43556</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>6</v>
+      <c r="D4" s="16">
+        <v>4410</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1102</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1103</v>
+      </c>
+      <c r="G4" s="17">
+        <v>1104</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="17"/>
       <c r="J4" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -960,22 +952,22 @@
       <c r="C5" s="15">
         <v>43557</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>6</v>
+      <c r="D5" s="16">
+        <v>1106</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1107</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1108</v>
+      </c>
+      <c r="G5" s="17">
+        <v>1111</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -988,22 +980,22 @@
       <c r="C6" s="15">
         <v>43558</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>6</v>
+      <c r="D6" s="16">
+        <v>1114</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1115</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1116</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1119</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="17"/>
       <c r="J6" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -1016,22 +1008,20 @@
       <c r="C7" s="15">
         <v>43559</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="D7" s="16">
+        <v>1117</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1120</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1122</v>
+      </c>
+      <c r="G7" s="17"/>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
       <c r="J7" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -1044,22 +1034,22 @@
       <c r="C8" s="15">
         <v>43560</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>6</v>
+      <c r="D8" s="16">
+        <v>1124</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1203</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1209</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1215</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -1072,22 +1062,20 @@
       <c r="C9" s="15">
         <v>43561</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="D9" s="16">
+        <v>1216</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1218</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1220</v>
+      </c>
+      <c r="G9" s="17"/>
       <c r="H9" s="16"/>
       <c r="I9" s="17"/>
       <c r="J9" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -1100,22 +1088,20 @@
       <c r="C10" s="15">
         <v>43562</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="D10" s="16">
+        <v>1223</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1302</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1304</v>
+      </c>
+      <c r="G10" s="17"/>
       <c r="H10" s="16"/>
       <c r="I10" s="17"/>
       <c r="J10" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -1128,22 +1114,22 @@
       <c r="C11" s="15">
         <v>43563</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>6</v>
+      <c r="D11" s="16">
+        <v>1306</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1308</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1311</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1315</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
       <c r="J11" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -1156,22 +1142,20 @@
       <c r="C12" s="15">
         <v>43564</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="D12" s="16">
+        <v>1316</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1319</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1321</v>
+      </c>
+      <c r="G12" s="17"/>
       <c r="H12" s="16"/>
       <c r="I12" s="17"/>
       <c r="J12" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -1185,17 +1169,21 @@
         <v>43565</v>
       </c>
       <c r="D13" s="16">
-        <v>6205</v>
+        <v>1323</v>
       </c>
       <c r="E13" s="17">
-        <v>6206</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+        <v>1324</v>
+      </c>
+      <c r="F13" s="17">
+        <v>1326</v>
+      </c>
+      <c r="G13" s="17">
+        <v>2301</v>
+      </c>
       <c r="H13" s="16"/>
       <c r="I13" s="17"/>
       <c r="J13" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -1209,21 +1197,17 @@
         <v>43566</v>
       </c>
       <c r="D14" s="16">
-        <v>6207</v>
+        <v>2101</v>
       </c>
       <c r="E14" s="17">
-        <v>6309</v>
-      </c>
-      <c r="F14" s="17">
-        <v>6310</v>
-      </c>
-      <c r="G14" s="17">
-        <v>6311</v>
-      </c>
+        <v>2102</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="16"/>
       <c r="I14" s="17"/>
       <c r="J14" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -1237,21 +1221,19 @@
         <v>43567</v>
       </c>
       <c r="D15" s="16">
-        <v>6409</v>
+        <v>2103</v>
       </c>
       <c r="E15" s="17">
-        <v>6410</v>
+        <v>2104</v>
       </c>
       <c r="F15" s="17">
-        <v>6411</v>
-      </c>
-      <c r="G15" s="17">
-        <v>6413</v>
-      </c>
+        <v>2201</v>
+      </c>
+      <c r="G15" s="17"/>
       <c r="H15" s="16"/>
       <c r="I15" s="17"/>
       <c r="J15" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -1265,21 +1247,17 @@
         <v>43568</v>
       </c>
       <c r="D16" s="16">
-        <v>6414</v>
+        <v>2202</v>
       </c>
       <c r="E16" s="17">
-        <v>7101</v>
-      </c>
-      <c r="F16" s="17">
-        <v>7103</v>
-      </c>
-      <c r="G16" s="17">
-        <v>7105</v>
-      </c>
+        <v>2203</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="16"/>
       <c r="I16" s="17"/>
       <c r="J16" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
@@ -1293,21 +1271,17 @@
         <v>43569</v>
       </c>
       <c r="D17" s="16">
-        <v>7106</v>
+        <v>2204</v>
       </c>
       <c r="E17" s="17">
-        <v>7307</v>
-      </c>
-      <c r="F17" s="17">
-        <v>1102</v>
-      </c>
-      <c r="G17" s="17">
-        <v>1103</v>
-      </c>
+        <v>2205</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="16"/>
       <c r="I17" s="17"/>
       <c r="J17" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
@@ -1321,21 +1295,19 @@
         <v>43570</v>
       </c>
       <c r="D18" s="16">
-        <v>1104</v>
+        <v>2206</v>
       </c>
       <c r="E18" s="17">
-        <v>1106</v>
+        <v>2208</v>
       </c>
       <c r="F18" s="17">
-        <v>1107</v>
-      </c>
-      <c r="G18" s="17">
-        <v>1108</v>
-      </c>
+        <v>2209</v>
+      </c>
+      <c r="G18" s="17"/>
       <c r="H18" s="16"/>
       <c r="I18" s="17"/>
       <c r="J18" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
@@ -1349,21 +1321,17 @@
         <v>43571</v>
       </c>
       <c r="D19" s="16">
-        <v>1111</v>
+        <v>2210</v>
       </c>
       <c r="E19" s="17">
-        <v>1114</v>
-      </c>
-      <c r="F19" s="17">
-        <v>1115</v>
-      </c>
-      <c r="G19" s="17">
-        <v>1116</v>
-      </c>
+        <v>2211</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
       <c r="J19" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
@@ -1377,19 +1345,21 @@
         <v>43572</v>
       </c>
       <c r="D20" s="16">
-        <v>1117</v>
+        <v>2212</v>
       </c>
       <c r="E20" s="17">
-        <v>1119</v>
+        <v>2214</v>
       </c>
       <c r="F20" s="17">
-        <v>1120</v>
-      </c>
-      <c r="G20" s="17"/>
+        <v>2303</v>
+      </c>
+      <c r="G20" s="17">
+        <v>2304</v>
+      </c>
       <c r="H20" s="16"/>
       <c r="I20" s="17"/>
       <c r="J20" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
@@ -1403,21 +1373,21 @@
         <v>43573</v>
       </c>
       <c r="D21" s="16">
-        <v>1122</v>
+        <v>2305</v>
       </c>
       <c r="E21" s="17">
-        <v>1124</v>
+        <v>2306</v>
       </c>
       <c r="F21" s="17">
-        <v>1203</v>
+        <v>2307</v>
       </c>
       <c r="G21" s="17">
-        <v>1209</v>
+        <v>2309</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="17"/>
       <c r="J21" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
@@ -1431,17 +1401,21 @@
         <v>43574</v>
       </c>
       <c r="D22" s="16">
-        <v>1215</v>
+        <v>2311</v>
       </c>
       <c r="E22" s="17">
-        <v>1216</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+        <v>2313</v>
+      </c>
+      <c r="F22" s="17">
+        <v>2314</v>
+      </c>
+      <c r="G22" s="17">
+        <v>2315</v>
+      </c>
       <c r="H22" s="16"/>
       <c r="I22" s="17"/>
       <c r="J22" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
@@ -1455,19 +1429,21 @@
         <v>43575</v>
       </c>
       <c r="D23" s="16">
-        <v>1218</v>
+        <v>2317</v>
       </c>
       <c r="E23" s="17">
-        <v>1220</v>
+        <v>2319</v>
       </c>
       <c r="F23" s="17">
-        <v>1223</v>
-      </c>
-      <c r="G23" s="17"/>
+        <v>2321</v>
+      </c>
+      <c r="G23" s="17">
+        <v>2323</v>
+      </c>
       <c r="H23" s="16"/>
       <c r="I23" s="17"/>
       <c r="J23" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
@@ -1481,21 +1457,21 @@
         <v>43576</v>
       </c>
       <c r="D24" s="16">
-        <v>1302</v>
+        <v>2325</v>
       </c>
       <c r="E24" s="17">
-        <v>1304</v>
+        <v>2327</v>
       </c>
       <c r="F24" s="17">
-        <v>1306</v>
+        <v>3409</v>
       </c>
       <c r="G24" s="17">
-        <v>1308</v>
+        <v>1102</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="17"/>
       <c r="J24" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
@@ -1509,19 +1485,19 @@
         <v>43577</v>
       </c>
       <c r="D25" s="16">
-        <v>1311</v>
+        <v>4102</v>
       </c>
       <c r="E25" s="17">
-        <v>1315</v>
+        <v>4103</v>
       </c>
       <c r="F25" s="17">
-        <v>1319</v>
+        <v>4106</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="16"/>
       <c r="I25" s="17"/>
       <c r="J25" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
@@ -1535,21 +1511,17 @@
         <v>43578</v>
       </c>
       <c r="D26" s="16">
-        <v>1316</v>
+        <v>4107</v>
       </c>
       <c r="E26" s="17">
-        <v>1321</v>
-      </c>
-      <c r="F26" s="17">
-        <v>1323</v>
-      </c>
-      <c r="G26" s="17">
-        <v>1326</v>
-      </c>
+        <v>4108</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="16"/>
       <c r="I26" s="17"/>
       <c r="J26" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
@@ -1563,17 +1535,19 @@
         <v>43579</v>
       </c>
       <c r="D27" s="16">
-        <v>1324</v>
+        <v>4109</v>
       </c>
       <c r="E27" s="17">
-        <v>2101</v>
-      </c>
-      <c r="F27" s="17"/>
+        <v>4110</v>
+      </c>
+      <c r="F27" s="17">
+        <v>4202</v>
+      </c>
       <c r="G27" s="17"/>
       <c r="H27" s="16"/>
       <c r="I27" s="17"/>
       <c r="J27" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
@@ -1587,19 +1561,17 @@
         <v>43580</v>
       </c>
       <c r="D28" s="16">
-        <v>2102</v>
+        <v>4203</v>
       </c>
       <c r="E28" s="17">
-        <v>2103</v>
-      </c>
-      <c r="F28" s="17">
-        <v>2104</v>
-      </c>
+        <v>4205</v>
+      </c>
+      <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="16"/>
       <c r="I28" s="17"/>
       <c r="J28" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
@@ -1613,17 +1585,19 @@
         <v>43581</v>
       </c>
       <c r="D29" s="16">
-        <v>2201</v>
+        <v>4206</v>
       </c>
       <c r="E29" s="17">
-        <v>2202</v>
-      </c>
-      <c r="F29" s="17"/>
+        <v>4207</v>
+      </c>
+      <c r="F29" s="17">
+        <v>4208</v>
+      </c>
       <c r="G29" s="17"/>
       <c r="H29" s="16"/>
       <c r="I29" s="17"/>
       <c r="J29" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
@@ -1637,17 +1611,17 @@
         <v>43582</v>
       </c>
       <c r="D30" s="16">
-        <v>2203</v>
+        <v>4209</v>
       </c>
       <c r="E30" s="17">
-        <v>2204</v>
+        <v>4302</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="16"/>
       <c r="I30" s="17"/>
       <c r="J30" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
@@ -1661,19 +1635,17 @@
         <v>43583</v>
       </c>
       <c r="D31" s="16">
-        <v>2205</v>
+        <v>4303</v>
       </c>
       <c r="E31" s="17">
-        <v>2206</v>
-      </c>
-      <c r="F31" s="17">
-        <v>2208</v>
-      </c>
+        <v>4305</v>
+      </c>
+      <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="16"/>
       <c r="I31" s="17"/>
       <c r="J31" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
@@ -1687,17 +1659,19 @@
         <v>43584</v>
       </c>
       <c r="D32" s="16">
-        <v>2209</v>
+        <v>4306</v>
       </c>
       <c r="E32" s="17">
-        <v>2210</v>
-      </c>
-      <c r="F32" s="17"/>
+        <v>4308</v>
+      </c>
+      <c r="F32" s="17">
+        <v>4309</v>
+      </c>
       <c r="G32" s="17"/>
       <c r="H32" s="16"/>
       <c r="I32" s="17"/>
       <c r="J32" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
@@ -1711,30 +1685,28 @@
         <v>43585</v>
       </c>
       <c r="D33" s="16">
-        <v>2211</v>
+        <v>4310</v>
       </c>
       <c r="E33" s="17">
-        <v>2212</v>
-      </c>
-      <c r="F33" s="17">
-        <v>2214</v>
-      </c>
+        <v>4402</v>
+      </c>
+      <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="16"/>
       <c r="I33" s="17"/>
       <c r="J33" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
@@ -1743,12 +1715,12 @@
       <c r="H34" s="16"/>
       <c r="I34" s="17"/>
       <c r="J34" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -1762,7 +1734,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -1776,7 +1748,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -1790,7 +1762,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -1836,7 +1808,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{B4290F3B-60C6-429A-A2EB-6BD7B7CF4049}">
+          <x14:cfRule type="expression" priority="2" id="{BC57509B-93D9-4B1A-8141-09CEF4DCEE9C}">
             <xm:f>AND($B2&lt;&gt;"",COUNTIF('\Users\Daichi\git\roster\[当番表自動作成.xlsm]Holiday'!#REF!,$B2)&gt;0)</xm:f>
             <x14:dxf>
               <fill>
